--- a/pred_ohlcv/54_21/2019-11-21 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>97533.91660000003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>57452.27380000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>39911.92530000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>39520.84200000003</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>42103.76980000002</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>42110.76980000002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>43319.61790000003</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-88227.16729999997</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-88227.16729999997</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-124634.2287</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-86427.92259999998</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-139905.3736</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-148762.4196</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-141982.4196</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-141982.4196</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-152954.5791</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-152309.5791</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-150809.9654</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-136494.4838</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-37470.70119999998</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-38117.69789999997</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>194106.7057</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>322530.2688</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>298875.53371227</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>461420.63331227</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>559553.0143122701</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>510695.0113122701</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>536772.74181227</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>536772.74181227</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>531796.15581227</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>537426.10771227</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>520933.74281227</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>520933.74281227</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>545686.34411227</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>532687.68931227</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>532663.35831227</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>538667.14671227</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>520946.48761227</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>526977.71711227</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>539198.95181227</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>523821.00691227</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>515513.11451227</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>516520.19951227</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>492537.56221227</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>436220.61841227</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>436230.63071227</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>415841.59401227</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>415851.97261227</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>600737.44261227</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>620270.60401227</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>610352.22641227</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>810250.13081227</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>761607.71941227</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>760651.46591227</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>789257.69221227</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>789152.6949122699</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>767688.62451227</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>756362.17181227</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>788622.47381227</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>786555.19591227</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>790873.19591227</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>790793.47071227</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>810708.24681227</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>804749.11731227</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>804759.11731227</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>785386.4700122699</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>785393.3712122699</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>785352.1846122699</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>767278.7920122698</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>767289.0109122698</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>761929.8420122698</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>761948.4568122698</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>761945.9484122697</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>761933.8565122697</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>760524.9582122697</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>760277.2703122697</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>756580.5002920727</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>734064.6649920727</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>705167.4513920727</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>741812.7902920727</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>733689.6996920727</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>730622.8340920727</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>717494.7701920727</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>703415.8517920728</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>734925.6568920728</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>730819.1736920727</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>99168.15910000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>97533.91660000003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>61718.36390000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>57452.27380000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>39911.92530000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>39520.84200000003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>42103.76980000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>42110.76980000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>43319.61790000003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-124634.2287</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-99709.82729999996</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-141982.4196</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-141982.4196</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-152954.5791</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-152309.5791</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-150809.9654</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-136494.4838</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-37470.70119999998</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-41282.64539999998</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-41168.64539999998</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-35447.93669999998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-38117.69789999997</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>194106.7057</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>322530.2688</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>465386.566206135</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>298875.53371227</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>461420.63331227</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>559437.8778122701</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>559553.0143122701</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>510695.0113122701</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>536772.74181227</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>536772.74181227</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>531796.15581227</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>537426.10771227</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>520933.74281227</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>520933.74281227</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>545686.34411227</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>573449.3325122701</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>532687.68931227</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>532663.35831227</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>538667.14671227</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>520946.48761227</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>526977.71711227</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>539198.95181227</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>523821.00691227</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>515513.11451227</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>516520.19951227</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>492537.56221227</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>436220.61841227</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>436230.63071227</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>415841.59401227</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>415851.97261227</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>600737.44261227</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>620270.60401227</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>610352.22641227</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>813706.36401227</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>810250.13081227</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>761607.71941227</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>766225.46591227</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>760651.46591227</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>789257.69221227</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>789152.6949122699</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>775060.42461227</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>767688.62451227</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>756362.17181227</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>788622.47381227</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>786555.19591227</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>790793.47071227</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>796611.97691227</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>756580.5002920727</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
